--- a/biology/Biologie cellulaire et moléculaire/Marqueur_de_différenciation/Marqueur_de_différenciation.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Marqueur_de_différenciation/Marqueur_de_différenciation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marqueur_de_diff%C3%A9renciation</t>
+          <t>Marqueur_de_différenciation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un marqueur de différenciation est une protéine spécifiquement exprimée par une cellule au cours de son processus de différenciation cellulaire. Cette expression est généralement contrôlée par l'activation et la régulation du gène spécifique correspondant.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marqueur_de_diff%C3%A9renciation</t>
+          <t>Marqueur_de_différenciation</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Quelques exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les protéines suivantes sont exprimées spécifiquement par les cellules correspondantes :
 CD3 : Lymphocytes T
